--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H2">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I2">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J2">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>31.738250244734</v>
+        <v>486.0438628993635</v>
       </c>
       <c r="R2">
-        <v>126.953000978936</v>
+        <v>1944.175451597454</v>
       </c>
       <c r="S2">
-        <v>0.0001453213141055041</v>
+        <v>0.001722804435125718</v>
       </c>
       <c r="T2">
-        <v>7.404155189915037E-05</v>
+        <v>0.0009288570053657855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H3">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I3">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J3">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>2195.922752259683</v>
+        <v>6265.720366517257</v>
       </c>
       <c r="R3">
-        <v>13175.5365135581</v>
+        <v>37594.32219910355</v>
       </c>
       <c r="S3">
-        <v>0.01005456751937671</v>
+        <v>0.02220912897099683</v>
       </c>
       <c r="T3">
-        <v>0.007684238758007961</v>
+        <v>0.01796121307257715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H4">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I4">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J4">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>2929.391891018557</v>
+        <v>6733.35974590916</v>
       </c>
       <c r="R4">
-        <v>17576.35134611134</v>
+        <v>40400.15847545496</v>
       </c>
       <c r="S4">
-        <v>0.01341293473490893</v>
+        <v>0.02386669788267882</v>
       </c>
       <c r="T4">
-        <v>0.01025088277044139</v>
+        <v>0.01930174058466822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H5">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I5">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J5">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>471.0063520817105</v>
+        <v>1456.339445446548</v>
       </c>
       <c r="R5">
-        <v>1884.025408326842</v>
+        <v>5825.357781786193</v>
       </c>
       <c r="S5">
-        <v>0.002156617378360695</v>
+        <v>0.005162060972639692</v>
       </c>
       <c r="T5">
-        <v>0.001098801635048352</v>
+        <v>0.002783146130113026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H6">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I6">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J6">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>98.30483416854467</v>
+        <v>2336.399356406653</v>
       </c>
       <c r="R6">
-        <v>589.829005011268</v>
+        <v>14018.39613843992</v>
       </c>
       <c r="S6">
-        <v>0.000450112642446849</v>
+        <v>0.008281473094694073</v>
       </c>
       <c r="T6">
-        <v>0.0003440001776201576</v>
+        <v>0.006697484759661823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H7">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I7">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J7">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>2257.391734951181</v>
+        <v>9039.414592225772</v>
       </c>
       <c r="R7">
-        <v>13544.35040970709</v>
+        <v>54236.48755335464</v>
       </c>
       <c r="S7">
-        <v>0.01033601823807029</v>
+        <v>0.03204061349016796</v>
       </c>
       <c r="T7">
-        <v>0.007899338464373896</v>
+        <v>0.0259122402605043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I8">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J8">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>517.5305324273401</v>
+        <v>2777.630741885971</v>
       </c>
       <c r="R8">
-        <v>3105.18319456404</v>
+        <v>16665.78445131582</v>
       </c>
       <c r="S8">
-        <v>0.002369639677112975</v>
+        <v>0.00984543767864321</v>
       </c>
       <c r="T8">
-        <v>0.001811005497182614</v>
+        <v>0.007962311541790869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I9">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J9">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>35807.1746987635</v>
@@ -1013,10 +1013,10 @@
         <v>322264.5722888715</v>
       </c>
       <c r="S9">
-        <v>0.163951876411115</v>
+        <v>0.1269201487544015</v>
       </c>
       <c r="T9">
-        <v>0.1879512013925766</v>
+        <v>0.1539664052983349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I10">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J10">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>47767.27555416224</v>
+        <v>38479.6279801752</v>
       </c>
       <c r="R10">
-        <v>429905.4799874601</v>
+        <v>346316.6518215768</v>
       </c>
       <c r="S10">
-        <v>0.2187141131361622</v>
+        <v>0.1363927801716933</v>
       </c>
       <c r="T10">
-        <v>0.2507295508004734</v>
+        <v>0.1654576225900725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I11">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J11">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>7680.327878502106</v>
+        <v>8322.65053232667</v>
       </c>
       <c r="R11">
-        <v>46081.96727101263</v>
+        <v>49935.90319396002</v>
       </c>
       <c r="S11">
-        <v>0.0351662530687321</v>
+        <v>0.02950001089112112</v>
       </c>
       <c r="T11">
-        <v>0.02687593318001002</v>
+        <v>0.0238575759522455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I12">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J12">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>1602.97914267878</v>
+        <v>13351.99386937103</v>
       </c>
       <c r="R12">
-        <v>14426.81228410902</v>
+        <v>120167.9448243393</v>
       </c>
       <c r="S12">
-        <v>0.007339630688570968</v>
+        <v>0.04732674561243581</v>
       </c>
       <c r="T12">
-        <v>0.008414008036331421</v>
+        <v>0.05741191582209507</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I13">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J13">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>36809.50075942514</v>
+        <v>51658.2098377768</v>
       </c>
       <c r="R13">
-        <v>331285.5068348263</v>
+        <v>464923.8885399912</v>
       </c>
       <c r="S13">
-        <v>0.1685412705703507</v>
+        <v>0.1831048590723671</v>
       </c>
       <c r="T13">
-        <v>0.19321239244921</v>
+        <v>0.2221238882928183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H14">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I14">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J14">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>0.5764544583833332</v>
+        <v>0.8907767895170001</v>
       </c>
       <c r="R14">
-        <v>3.4587267503</v>
+        <v>5.344660737102001</v>
       </c>
       <c r="S14">
-        <v>2.639437233252703E-06</v>
+        <v>3.157398582367627E-06</v>
       </c>
       <c r="T14">
-        <v>2.017199232886251E-06</v>
+        <v>2.553486395932825E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H15">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I15">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J15">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>39.88403428180555</v>
+        <v>11.48323988457222</v>
       </c>
       <c r="R15">
-        <v>358.9563085362499</v>
+        <v>103.34915896115</v>
       </c>
       <c r="S15">
-        <v>0.000182618771638888</v>
+        <v>4.070286266910389E-05</v>
       </c>
       <c r="T15">
-        <v>0.000209350562358301</v>
+        <v>4.937650571652348E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H16">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I16">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J16">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>53.20586367894722</v>
+        <v>12.34028661805333</v>
       </c>
       <c r="R16">
-        <v>478.852773110525</v>
+        <v>111.06257956248</v>
       </c>
       <c r="S16">
-        <v>0.000243616014377661</v>
+        <v>4.374070354367737E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002792765998355384</v>
+        <v>5.306170025747462E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H17">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I17">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J17">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>8.554778839120832</v>
+        <v>2.669045892120333</v>
       </c>
       <c r="R17">
-        <v>51.328673034725</v>
+        <v>16.014275352722</v>
       </c>
       <c r="S17">
-        <v>3.917013991624407E-05</v>
+        <v>9.460553771977294E-06</v>
       </c>
       <c r="T17">
-        <v>2.993591785235295E-05</v>
+        <v>7.651043960569644E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H18">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I18">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J18">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>1.785487841961111</v>
+        <v>4.281939299294111</v>
       </c>
       <c r="R18">
-        <v>16.06939057765</v>
+        <v>38.537453693647</v>
       </c>
       <c r="S18">
-        <v>8.175291249908787E-06</v>
+        <v>1.517752733623223E-05</v>
       </c>
       <c r="T18">
-        <v>9.37199284198254E-06</v>
+        <v>1.841180733091325E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H19">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I19">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J19">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>41.00048111966111</v>
+        <v>16.56661327136889</v>
       </c>
       <c r="R19">
-        <v>369.00433007695</v>
+        <v>149.09951944232</v>
       </c>
       <c r="S19">
-        <v>0.0001877306955904304</v>
+        <v>5.872110934324538E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002152107712754022</v>
+        <v>7.123438011568215E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H20">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I20">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J20">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>252.134208331032</v>
+        <v>1934.798238515066</v>
       </c>
       <c r="R20">
-        <v>1008.536833324128</v>
+        <v>7739.192954060263</v>
       </c>
       <c r="S20">
-        <v>0.001154457923895659</v>
+        <v>0.006857979785000072</v>
       </c>
       <c r="T20">
-        <v>0.0005881990320115632</v>
+        <v>0.003697507642815777</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H21">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I21">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J21">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>17444.7942286598</v>
+        <v>24941.99732478802</v>
       </c>
       <c r="R21">
-        <v>104668.7653719588</v>
+        <v>149651.9839487281</v>
       </c>
       <c r="S21">
-        <v>0.07987524208362995</v>
+        <v>0.08840803658277166</v>
       </c>
       <c r="T21">
-        <v>0.06104493602946597</v>
+        <v>0.07149832775815006</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H22">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I22">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J22">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>23271.60128986181</v>
+        <v>26803.53270579348</v>
       </c>
       <c r="R22">
-        <v>139629.6077391708</v>
+        <v>160821.1962347609</v>
       </c>
       <c r="S22">
-        <v>0.1065546983436234</v>
+        <v>0.09500633285876781</v>
       </c>
       <c r="T22">
-        <v>0.08143480475733826</v>
+        <v>0.07683457509517652</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H23">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I23">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J23">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>3741.756800871954</v>
+        <v>5797.260718243871</v>
       </c>
       <c r="R23">
-        <v>14967.02720348782</v>
+        <v>23189.04287297548</v>
       </c>
       <c r="S23">
-        <v>0.01713254546715723</v>
+        <v>0.02054865257919857</v>
       </c>
       <c r="T23">
-        <v>0.008729072278070116</v>
+        <v>0.0110788894606157</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H24">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I24">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J24">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>780.950787994744</v>
+        <v>9300.521422650483</v>
       </c>
       <c r="R24">
-        <v>4685.704727968464</v>
+        <v>55803.1285359029</v>
       </c>
       <c r="S24">
-        <v>0.003575773518956205</v>
+        <v>0.03296611844935813</v>
       </c>
       <c r="T24">
-        <v>0.002732797548106286</v>
+        <v>0.02666072489461354</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H25">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I25">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J25">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>17933.11457298647</v>
+        <v>35983.26152277132</v>
       </c>
       <c r="R25">
-        <v>107598.6874379188</v>
+        <v>215899.5691366279</v>
       </c>
       <c r="S25">
-        <v>0.08211113579531239</v>
+        <v>0.1275442964590104</v>
       </c>
       <c r="T25">
-        <v>0.06275372569993026</v>
+        <v>0.1031490378521319</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H26">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I26">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J26">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>65.081571392858</v>
+        <v>8.237742879587001</v>
       </c>
       <c r="R26">
-        <v>390.489428357148</v>
+        <v>49.426457277522</v>
       </c>
       <c r="S26">
-        <v>0.0002979918365358069</v>
+        <v>2.919905187922572E-05</v>
       </c>
       <c r="T26">
-        <v>0.0002277413141306717</v>
+        <v>2.361418104261961E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H27">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I27">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J27">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>4502.897994450783</v>
+        <v>106.1949286364055</v>
       </c>
       <c r="R27">
-        <v>40526.08195005704</v>
+        <v>955.7543577276499</v>
       </c>
       <c r="S27">
-        <v>0.02061761593001489</v>
+        <v>0.0003764127232289309</v>
       </c>
       <c r="T27">
-        <v>0.02363562875108585</v>
+        <v>0.0004566250077145902</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H28">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I28">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J28">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>6006.929368282235</v>
+        <v>114.1207420492533</v>
       </c>
       <c r="R28">
-        <v>54062.36431454011</v>
+        <v>1027.08667844328</v>
       </c>
       <c r="S28">
-        <v>0.02750419014301386</v>
+        <v>0.0004045061270180047</v>
       </c>
       <c r="T28">
-        <v>0.03153026176868359</v>
+        <v>0.0004907050213014663</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H29">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I29">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J29">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>965.8324984245635</v>
+        <v>24.68285439389033</v>
       </c>
       <c r="R29">
-        <v>5794.994990547381</v>
+        <v>148.097126363342</v>
       </c>
       <c r="S29">
-        <v>0.004422299490191574</v>
+        <v>8.748949275419863E-05</v>
       </c>
       <c r="T29">
-        <v>0.003379758013117953</v>
+        <v>7.07554728067899E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H30">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I30">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J30">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>201.5811531470527</v>
+        <v>39.59860134289077</v>
       </c>
       <c r="R30">
-        <v>1814.230378323474</v>
+        <v>356.387412086017</v>
       </c>
       <c r="S30">
-        <v>0.0009229884397641935</v>
+        <v>0.0001403590318193827</v>
       </c>
       <c r="T30">
-        <v>0.001058095765187468</v>
+        <v>0.0001702690691152811</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H31">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I31">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J31">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>4628.944577190385</v>
+        <v>153.2050476855022</v>
       </c>
       <c r="R31">
-        <v>41660.50119471346</v>
+        <v>1378.84542916952</v>
       </c>
       <c r="S31">
-        <v>0.02119475092961261</v>
+        <v>0.0005430422144654878</v>
       </c>
       <c r="T31">
-        <v>0.02429724494551169</v>
+        <v>0.0006587626827343994</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H32">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I32">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J32">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>1.158208239501333</v>
+        <v>2.833713157369</v>
       </c>
       <c r="R32">
-        <v>6.949249437008</v>
+        <v>17.002278944214</v>
       </c>
       <c r="S32">
-        <v>5.303138707215988E-06</v>
+        <v>1.004422433454371E-05</v>
       </c>
       <c r="T32">
-        <v>4.052942497481729E-06</v>
+        <v>8.123076490622347E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H33">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I33">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J33">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>80.13472089242221</v>
+        <v>36.53014799339444</v>
       </c>
       <c r="R33">
-        <v>721.2124880317999</v>
+        <v>328.77133194055</v>
       </c>
       <c r="S33">
-        <v>0.000366916350327056</v>
+        <v>0.0001294827602665347</v>
       </c>
       <c r="T33">
-        <v>0.0004206256760466965</v>
+        <v>0.0001570751006991162</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H34">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I34">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J34">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>106.9008467304849</v>
+        <v>39.25656007970667</v>
       </c>
       <c r="R34">
-        <v>962.107620574364</v>
+        <v>353.30904071736</v>
       </c>
       <c r="S34">
-        <v>0.0004894715810126522</v>
+        <v>0.0001391466511060568</v>
       </c>
       <c r="T34">
-        <v>0.0005611205782614331</v>
+        <v>0.0001687983341522689</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H35">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I35">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J35">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>17.18820141727933</v>
+        <v>8.490690991425668</v>
       </c>
       <c r="R35">
-        <v>103.129208503676</v>
+        <v>50.944145948554</v>
       </c>
       <c r="S35">
-        <v>7.870036935900576E-05</v>
+        <v>3.009563789171603E-05</v>
       </c>
       <c r="T35">
-        <v>6.014703539784903E-05</v>
+        <v>2.433927802545315E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H36">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I36">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J36">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>3.587389602100444</v>
+        <v>13.62158048375322</v>
       </c>
       <c r="R36">
-        <v>32.286506418904</v>
+        <v>122.594224353779</v>
       </c>
       <c r="S36">
-        <v>1.642573762465547E-05</v>
+        <v>4.828230754904302E-05</v>
       </c>
       <c r="T36">
-        <v>1.883014203858143E-05</v>
+        <v>5.857110479140539E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H37">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I37">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J37">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>82.37787801917244</v>
+        <v>52.70122723513778</v>
       </c>
       <c r="R37">
-        <v>741.400902172552</v>
+        <v>474.31104511624</v>
       </c>
       <c r="S37">
-        <v>0.0003771871919421685</v>
+        <v>0.0001868018813686013</v>
       </c>
       <c r="T37">
-        <v>0.0004323999665466278</v>
+        <v>0.0002266087335978805</v>
       </c>
     </row>
   </sheetData>
